--- a/HW WK1/Bonus_Statistical_Analysis - 12-19-2021.xlsx
+++ b/HW WK1/Bonus_Statistical_Analysis - 12-19-2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco.lopez\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lopez\Desktop\SMU - DS - BC\SMU_Data_1221_homework\HW WK1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4266BA6F-9839-4FAA-8A80-AA9D83D9B787}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A2F276-934A-46BA-93C8-F421B16E27BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC762491-7117-42A3-8408-60AFFDE51EBA}"/>
+    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{FC762491-7117-42A3-8408-60AFFDE51EBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3733" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3735" uniqueCount="12">
   <si>
     <t>State</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>BackersCount</t>
+  </si>
+  <si>
+    <t>Campaigns</t>
   </si>
 </sst>
 </file>
@@ -512,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A96BD0E-BF72-44A6-B804-F55C6E005D6C}">
   <dimension ref="B2:P2187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,6 +547,9 @@
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
       <c r="K2" t="s">
         <v>3</v>
       </c>
@@ -617,6 +623,27 @@
       <c r="F4">
         <v>1</v>
       </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>17.709803921568628</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1293</v>
+      </c>
+      <c r="O4">
+        <v>3773.2216685890044</v>
+      </c>
+      <c r="P4">
+        <v>61.426555076684906</v>
+      </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -631,24 +658,6 @@
       <c r="F5">
         <v>10</v>
       </c>
-      <c r="K5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O5" t="s">
-        <v>7</v>
-      </c>
-      <c r="P5" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -663,88 +672,106 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>284</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
         <v>9</v>
       </c>
-      <c r="K6">
+      <c r="K10">
         <f>AVERAGE(F3:F1532)</f>
         <v>17.709803921568628</v>
       </c>
-      <c r="L6">
+      <c r="L10">
         <f>MEDIAN(F3:F1532)</f>
         <v>4</v>
       </c>
-      <c r="M6">
+      <c r="M10">
         <f>MIN(F3:F1532)</f>
         <v>0</v>
       </c>
-      <c r="N6">
+      <c r="N10">
         <f>MAX(F3:F1532)</f>
         <v>1293</v>
       </c>
-      <c r="O6">
+      <c r="O10">
         <f>_xlfn.VAR.P(F3:F2497)</f>
         <v>3773.2216685890044</v>
       </c>
-      <c r="P6">
+      <c r="P10">
         <f>_xlfn.STDEV.P(F3:F1532)</f>
         <v>61.426555076684906</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>284</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>47</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>58</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>57</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
